--- a/code/content/TOPIC_XLSX/시간대_2.xlsx
+++ b/code/content/TOPIC_XLSX/시간대_2.xlsx
@@ -19,57 +19,60 @@
     <t>접수시간대</t>
   </si>
   <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>09</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>11</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>24</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
     <t>07</t>
   </si>
   <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>21</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>22</t>
   </si>
   <si>
     <t>06</t>
   </si>
   <si>
+    <t>23</t>
+  </si>
+  <si>
     <t>12</t>
   </si>
   <si>
@@ -79,16 +82,13 @@
     <t>01</t>
   </si>
   <si>
-    <t>23</t>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
   </si>
   <si>
     <t>02</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>03</t>
   </si>
 </sst>
 </file>
@@ -465,7 +465,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>63</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -473,7 +473,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>55</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -481,7 +481,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>46</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -489,7 +489,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>41</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -497,7 +497,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>40</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -505,7 +505,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>37</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -513,7 +513,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>36</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -521,7 +521,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>31</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -529,7 +529,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>30</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -537,7 +537,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>25</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -545,7 +545,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>21</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -553,7 +553,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>21</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -561,7 +561,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -569,7 +569,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -577,7 +577,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>14</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -585,7 +585,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -593,7 +593,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -601,7 +601,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -609,7 +609,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -617,7 +617,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -625,7 +625,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -633,7 +633,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -641,7 +641,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
